--- a/biology/Botanique/Descurainia/Descurainia.xlsx
+++ b/biology/Botanique/Descurainia/Descurainia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Descurainia est un genre de plantes à fleurs de la famille des Brassicacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 février 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 février 2022) :
 Descurainia artemisioides Svent.
 Descurainia bartschii O. E. Schulz
 Descurainia bourgeauana (E. Fourn.) O. E. Schulz
@@ -531,7 +545,7 @@
 Descurainia ramosissima Rollins
 Descurainia sophia (L.) Prantl
 Descurainia sophioides (Fisch. ex Hook.) O.E. Schulz
-Selon ITIS      (14 février 2022)[2] :
+Selon ITIS      (14 février 2022) :
 Descurainia adenophora (Wooton &amp; Standl.) O.E. Schulz
 Descurainia brevisiliqua (Detling) Al-Shehbaz &amp; Goodson
 Descurainia californica (A. Gray) O.E. Schulz
@@ -546,7 +560,7 @@
 Descurainia sophia (L.) Webb ex Prantl
 Descurainia sophioides (Fisch. ex Hook.) O.E. Schulz
 Descurainia torulosa Rollins
-Selon NCBI  (14 février 2022)[3] :
+Selon NCBI  (14 février 2022) :
 Descurainia adenophora (Wooton &amp; Standley) O.E.Schulz
 Descurainia antarctica (E.Fourn.) O.E.Schulz
 Descurainia appendiculata (Griseb.) O.E.Schulz
@@ -585,7 +599,7 @@
 Descurainia tanacetifolia (L.) Prantl
 Descurainia torulosa Rollins
 Descurainia virletii O.E.Schulz
-Selon The Plant List            (14 février 2022)[4] :
+Selon The Plant List            (14 février 2022) :
 Descurainia adpressa Boelcke
 Descurainia altoandina Romanczuk
 Descurainia antarctica (E.Fourn.) O.E.Schulz
@@ -632,7 +646,7 @@
 Descurainia torulosa Rollins
 Descurainia verlettii O.E. Schulz
 Descurainia virletii (E.Fourn.) O.E.Schulz
-Selon Tropicos                                           (14 février 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 février 2022) (Attention liste brute contenant possiblement des synonymes) :
 Descurainia adenophora (Wooton &amp; Standl.) O.E. Schulz
 Descurainia adpressa Boelcke
 Descurainia altoandina Romanczuk
